--- a/Simulación/Punto 3/Datos simulación/Cálculos de potencia.xlsx
+++ b/Simulación/Punto 3/Datos simulación/Cálculos de potencia.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Inicio (ms)</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Energía promedio nJ</t>
   </si>
   <si>
-    <t>Potencia promedio (mW)</t>
-  </si>
-  <si>
     <t>ON CCM</t>
   </si>
   <si>
@@ -68,7 +65,19 @@
     <t>Corriente media CCM (A)</t>
   </si>
   <si>
-    <t>Potencia media (W)</t>
+    <t>Pérdida %</t>
+  </si>
+  <si>
+    <t>Potencia perdida promedio (W)</t>
+  </si>
+  <si>
+    <t>Pot. perd. promedio (mW)</t>
+  </si>
+  <si>
+    <t>Potencia media carga DCM(W)</t>
+  </si>
+  <si>
+    <t>Potencia media carga CCM (W)</t>
   </si>
 </sst>
 </file>
@@ -386,19 +395,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:K18"/>
+  <dimension ref="D4:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="15" customWidth="1"/>
     <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -406,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
         <v>2</v>
@@ -415,12 +425,15 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>5</v>
       </c>
       <c r="E5">
         <v>1.4200006999999999</v>
@@ -433,19 +446,23 @@
         <v>249.50000000001359</v>
       </c>
       <c r="H5">
-        <v>1023.2</v>
+        <v>1000.7</v>
       </c>
       <c r="I5">
-        <v>255.28</v>
+        <v>249.67</v>
       </c>
       <c r="K5">
         <f>I5*0.000000001*50000*1000</f>
-        <v>12.763999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
+        <v>12.483499999999999</v>
+      </c>
+      <c r="M5">
+        <f>K5*0.001</f>
+        <v>1.24835E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>1.0600016000000001</v>
@@ -458,19 +475,23 @@
         <v>127.69999999995285</v>
       </c>
       <c r="H6">
-        <v>4.9104000000000001</v>
+        <v>5.5773000000000001</v>
       </c>
       <c r="I6">
-        <v>0.62705999999999995</v>
+        <v>0.71221999999999996</v>
       </c>
       <c r="K6">
         <f>I6*0.000000001*50000*1000</f>
-        <v>3.1353000000000006E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
+        <v>3.5611000000000004E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M8" si="1">K6*0.001</f>
+        <v>3.5611000000000002E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>1.4097599999999999</v>
@@ -483,74 +504,121 @@
         <v>480.00000000003593</v>
       </c>
       <c r="H7">
-        <v>726.27</v>
+        <v>737.9</v>
       </c>
       <c r="I7">
-        <v>361.08</v>
+        <v>354.19</v>
       </c>
       <c r="K7">
         <f>I7*0.000000001*50000*1000</f>
-        <v>18.054000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
+        <v>17.709499999999998</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>1.77095E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>1.0699242</v>
+        <v>1.069798</v>
       </c>
       <c r="F8">
-        <v>1.0703121</v>
+        <v>1.0701867</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>387.89999999999657</v>
+        <v>388.7000000000196</v>
       </c>
       <c r="H8">
-        <v>243.08</v>
+        <v>245.28</v>
       </c>
       <c r="I8">
-        <v>94.29</v>
+        <v>95.341999999999999</v>
       </c>
       <c r="K8">
         <f>I8*0.000000001*50000*1000</f>
-        <v>4.7145000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
+        <v>4.767100000000001</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>4.7671000000000007E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>6.2408000000000001</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <f>F13*F12</f>
         <v>0.25587280000000001</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <f>((M6+M8)/(M6+M8+F14))*100</f>
+        <v>1.8424097382895319</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>3.758</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
+      <c r="F18">
+        <v>0.37580000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <f>F18*F17</f>
+        <v>1.4122564000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
         <v>13</v>
+      </c>
+      <c r="F20">
+        <f>((M5+M7)/(M5+M7+F19))*100</f>
+        <v>2.0931756774275754</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f>1/(0.0000021700718)</f>
+        <v>460814.24586965278</v>
       </c>
     </row>
   </sheetData>
